--- a/01_Activities/02_Wk-01.3_Activities/02-Ins_BasicCharting/Unsolved/IceCreamFaves.xlsx
+++ b/01_Activities/02_Wk-01.3_Activities/02-Ins_BasicCharting/Unsolved/IceCreamFaves.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E7470\Downloads\Trilogy_UTSA_Interview_Materials\UTSA_Bootcamp\utsa-san-data-pt-09-2020-u-c\Activities\Week01-3\02-Ins_BasicCharting\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Stu_IceCreamFaves/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C8892-AF10-4EB2-BEFC-03992D26CB41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080"/>
   </bookViews>
   <sheets>
-    <sheet name="Favorite Ice Cream Flavors" sheetId="1" r:id="rId1"/>
-    <sheet name="Ice Cream Sales" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vanilla</t>
   </si>
@@ -83,45 +72,12 @@
   </si>
   <si>
     <t>Percentage of Total</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,14 +185,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C11"/>
+  <sortState ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" name="Flavor"/>
+    <tableColumn id="2" name="Number of Faves"/>
+    <tableColumn id="3" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -540,21 +497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -567,7 +524,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -579,7 +536,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +548,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -603,7 +560,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -615,7 +572,7 @@
         <v>0.11166666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -627,7 +584,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -639,7 +596,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -651,7 +608,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -663,7 +620,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -675,7 +632,7 @@
         <v>5.6666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -687,12 +644,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
@@ -705,434 +662,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9546EF5-8639-409E-B9DA-0A202000CD83}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>159</v>
-      </c>
-      <c r="C2">
-        <v>178</v>
-      </c>
-      <c r="D2">
-        <v>201</v>
-      </c>
-      <c r="E2">
-        <v>217</v>
-      </c>
-      <c r="F2">
-        <v>224</v>
-      </c>
-      <c r="G2">
-        <v>219</v>
-      </c>
-      <c r="H2">
-        <v>247</v>
-      </c>
-      <c r="I2">
-        <v>280</v>
-      </c>
-      <c r="J2">
-        <v>306</v>
-      </c>
-      <c r="K2">
-        <v>301</v>
-      </c>
-      <c r="L2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>133</v>
-      </c>
-      <c r="C3">
-        <v>165</v>
-      </c>
-      <c r="D3">
-        <v>215</v>
-      </c>
-      <c r="E3">
-        <v>212</v>
-      </c>
-      <c r="F3">
-        <v>216</v>
-      </c>
-      <c r="G3">
-        <v>227</v>
-      </c>
-      <c r="H3">
-        <v>217</v>
-      </c>
-      <c r="I3">
-        <v>208</v>
-      </c>
-      <c r="J3">
-        <v>203</v>
-      </c>
-      <c r="K3">
-        <v>210</v>
-      </c>
-      <c r="L3">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <v>109</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>153</v>
-      </c>
-      <c r="G4">
-        <v>168</v>
-      </c>
-      <c r="H4">
-        <v>207</v>
-      </c>
-      <c r="I4">
-        <v>243</v>
-      </c>
-      <c r="J4">
-        <v>242</v>
-      </c>
-      <c r="K4">
-        <v>265</v>
-      </c>
-      <c r="L4">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>88</v>
-      </c>
-      <c r="C5">
-        <v>116</v>
-      </c>
-      <c r="D5">
-        <v>163</v>
-      </c>
-      <c r="E5">
-        <v>208</v>
-      </c>
-      <c r="F5">
-        <v>254</v>
-      </c>
-      <c r="G5">
-        <v>292</v>
-      </c>
-      <c r="H5">
-        <v>318</v>
-      </c>
-      <c r="I5">
-        <v>350</v>
-      </c>
-      <c r="J5">
-        <v>360</v>
-      </c>
-      <c r="K5">
-        <v>373</v>
-      </c>
-      <c r="L5">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>182</v>
-      </c>
-      <c r="C6">
-        <v>214</v>
-      </c>
-      <c r="D6">
-        <v>258</v>
-      </c>
-      <c r="E6">
-        <v>295</v>
-      </c>
-      <c r="F6">
-        <v>327</v>
-      </c>
-      <c r="G6">
-        <v>328</v>
-      </c>
-      <c r="H6">
-        <v>353</v>
-      </c>
-      <c r="I6">
-        <v>374</v>
-      </c>
-      <c r="J6">
-        <v>418</v>
-      </c>
-      <c r="K6">
-        <v>441</v>
-      </c>
-      <c r="L6">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>55</v>
-      </c>
-      <c r="D7">
-        <v>62</v>
-      </c>
-      <c r="E7">
-        <v>73</v>
-      </c>
-      <c r="F7">
-        <v>121</v>
-      </c>
-      <c r="G7">
-        <v>127</v>
-      </c>
-      <c r="H7">
-        <v>163</v>
-      </c>
-      <c r="I7">
-        <v>209</v>
-      </c>
-      <c r="J7">
-        <v>220</v>
-      </c>
-      <c r="K7">
-        <v>248</v>
-      </c>
-      <c r="L7">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>80</v>
-      </c>
-      <c r="F8">
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="H8">
-        <v>77</v>
-      </c>
-      <c r="I8">
-        <v>99</v>
-      </c>
-      <c r="J8">
-        <v>120</v>
-      </c>
-      <c r="K8">
-        <v>137</v>
-      </c>
-      <c r="L8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>140</v>
-      </c>
-      <c r="C9">
-        <v>141</v>
-      </c>
-      <c r="D9">
-        <v>149</v>
-      </c>
-      <c r="E9">
-        <v>163</v>
-      </c>
-      <c r="F9">
-        <v>180</v>
-      </c>
-      <c r="G9">
-        <v>167</v>
-      </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="I9">
-        <v>232</v>
-      </c>
-      <c r="J9">
-        <v>228</v>
-      </c>
-      <c r="K9">
-        <v>216</v>
-      </c>
-      <c r="L9">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>118</v>
-      </c>
-      <c r="D10">
-        <v>124</v>
-      </c>
-      <c r="E10">
-        <v>126</v>
-      </c>
-      <c r="F10">
-        <v>148</v>
-      </c>
-      <c r="G10">
-        <v>171</v>
-      </c>
-      <c r="H10">
-        <v>193</v>
-      </c>
-      <c r="I10">
-        <v>185</v>
-      </c>
-      <c r="J10">
-        <v>172</v>
-      </c>
-      <c r="K10">
-        <v>165</v>
-      </c>
-      <c r="L10">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>85</v>
-      </c>
-      <c r="E11">
-        <v>85</v>
-      </c>
-      <c r="F11">
-        <v>124</v>
-      </c>
-      <c r="G11">
-        <v>110</v>
-      </c>
-      <c r="H11">
-        <v>130</v>
-      </c>
-      <c r="I11">
-        <v>137</v>
-      </c>
-      <c r="J11">
-        <v>159</v>
-      </c>
-      <c r="K11">
-        <v>165</v>
-      </c>
-      <c r="L11">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>